--- a/sorensenLab/relatedToYbx1/design20210331_aidDegronYbx1/idtOligoOrder.xlsx
+++ b/sorensenLab/relatedToYbx1/design20210331_aidDegronYbx1/idtOligoOrder.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="14310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -33,118 +33,124 @@
     <t>Purification</t>
   </si>
   <si>
-    <t>puc19_ybx1_fwd</t>
-  </si>
-  <si>
-    <t>ybx1_hygro_rev</t>
-  </si>
-  <si>
-    <t>ybx1_hygro_fwd</t>
-  </si>
-  <si>
-    <t>hygro_flag_rev</t>
-  </si>
-  <si>
-    <t>hygro_flag_fwd</t>
-  </si>
-  <si>
-    <t>flag_ybx1_rev</t>
-  </si>
-  <si>
-    <t>flag_ybx1_fwd</t>
-  </si>
-  <si>
-    <t>ybx1_puc19_rev</t>
-  </si>
-  <si>
-    <t>ybx1_bsd_rev</t>
-  </si>
-  <si>
-    <t>ybx1_bsd_fwd</t>
-  </si>
-  <si>
-    <t>ostir1_qpcrFwd</t>
-  </si>
-  <si>
-    <t>ostir1_qpcrRev</t>
-  </si>
-  <si>
-    <t>m13_sangerRev</t>
-  </si>
-  <si>
-    <t>m13_sangerFwd</t>
-  </si>
-  <si>
-    <t>anti_sangerFwd</t>
-  </si>
-  <si>
-    <t>p2a_sangerFwd</t>
-  </si>
-  <si>
-    <t>yb1Insert_gDnaFwd</t>
-  </si>
-  <si>
-    <t>yb1Insert_gDnaRev</t>
-  </si>
-  <si>
-    <t>CTCGCTGCTCATCTTGTCGT</t>
-  </si>
-  <si>
-    <t>TATGGTTTTCGTGGCCGACT</t>
-  </si>
-  <si>
-    <t>tgctgaagcaggctggagac</t>
-  </si>
-  <si>
-    <t>GGCCTAGTTACCATCACACC</t>
-  </si>
-  <si>
-    <t>TGTAAAACGACGGCCAGT</t>
-  </si>
-  <si>
-    <t>CAGGAAACAGCTATGAC</t>
-  </si>
-  <si>
-    <t>GCTCCTCATTGTCTCGTATCTG</t>
-  </si>
-  <si>
-    <t>ACGTGATGAACGGGTGTAAG</t>
-  </si>
-  <si>
-    <t>cagtcaccatcaccgcaaccatggccaagcctttg</t>
-  </si>
-  <si>
-    <t>tgagacaaaggcttggccatggttgcggtgatggtga</t>
-  </si>
-  <si>
-    <t>aaaacgacggccagtgaattccgtcgcacacgcggtcg</t>
-  </si>
-  <si>
-    <t>ATAAGGATGATGACGACAAGatgagcagcgaggccgagac</t>
-  </si>
-  <si>
-    <t>gtctcggcctcgctgctcatCTTGTCGTCATCATCCTTAT</t>
-  </si>
-  <si>
-    <t>tcgatttgaggatgtataaaATGGACTACAAGGATCATGA</t>
-  </si>
-  <si>
-    <t>TCATGATCCTTGTAGTCCATtttatacatcctcaaatcgatt</t>
-  </si>
-  <si>
-    <t>cagtcaccatcaccgcaaccatgaaaaagcctgaactcac</t>
-  </si>
-  <si>
-    <t>gtgagttcaggctttttcatggttgcggtgatggtga</t>
-  </si>
-  <si>
-    <t>cctgcaggtcgactctagagctcgggtactctatggtttt</t>
-  </si>
-  <si>
     <t>25nm</t>
   </si>
   <si>
     <t>STD</t>
+  </si>
+  <si>
+    <t>yb1GdnaWideFwd1</t>
+  </si>
+  <si>
+    <t>yb1GdnaWideRev1</t>
+  </si>
+  <si>
+    <t>yb1GdnaWideFwd2</t>
+  </si>
+  <si>
+    <t>yb1GdnaWideRev2</t>
+  </si>
+  <si>
+    <t>puc19Ybx1Fwd1</t>
+  </si>
+  <si>
+    <t>hygroYbx1Rev1</t>
+  </si>
+  <si>
+    <t>bsdYbx1Rev1</t>
+  </si>
+  <si>
+    <t>ybx1HygroFwd1</t>
+  </si>
+  <si>
+    <t>ybx1BsdFwd1</t>
+  </si>
+  <si>
+    <t>flagAidRev1</t>
+  </si>
+  <si>
+    <t>aidFlagFwd1</t>
+  </si>
+  <si>
+    <t>yb1FlagRev1</t>
+  </si>
+  <si>
+    <t>flagYbx1Fwd1</t>
+  </si>
+  <si>
+    <t>puc19Ybx1Rev1</t>
+  </si>
+  <si>
+    <t>ostirInsertFwd1</t>
+  </si>
+  <si>
+    <t>ostirInsertRev1</t>
+  </si>
+  <si>
+    <t>ostirInsertFwd2</t>
+  </si>
+  <si>
+    <t>ostirInsertRev2</t>
+  </si>
+  <si>
+    <t>TTCTCGGCGCTGCACCACG</t>
+  </si>
+  <si>
+    <t>GTAGAGGCGGCCACGACCTG</t>
+  </si>
+  <si>
+    <t>CTGAGCGGATCCTCCCCGTGT</t>
+  </si>
+  <si>
+    <t>AGGGCCTTAGGGAAGCGGGAC</t>
+  </si>
+  <si>
+    <t>CCTGCAGGTCGACTCTAGAGGAACCCGGGCTGCCATAGCC</t>
+  </si>
+  <si>
+    <t>AAAACGACGGCCAGTGAATTCTTGGGCATCCGGTCCCTCG</t>
+  </si>
+  <si>
+    <t>CCTGCAGGTCGACTCTAGAGCCATGGAGCACACCCTCGCC</t>
+  </si>
+  <si>
+    <t>AAAACGACGGCCAGTGAATTGCATCCGGTCCCTCGCACG</t>
+  </si>
+  <si>
+    <t>CCTGCAGGTCGACTCTAGAGCTCGGGTACTCTATGGTTTTCG</t>
+  </si>
+  <si>
+    <t>GTGAGTTCAGGCTTTTTCATGGTTGCGGTGATGGTGAC</t>
+  </si>
+  <si>
+    <t>TGAGACAAAGGCTTGGCCATGGTTGCGGTGATGGTGAC</t>
+  </si>
+  <si>
+    <t>CAGTCACCATCACCGCAACCATGAAAAAGCCTGAACTCACCG</t>
+  </si>
+  <si>
+    <t>CAGTCACCATCACCGCAACCATGGCCAAGCCTTTGTCTC</t>
+  </si>
+  <si>
+    <t>CCATCATGATCCTTGTAGTCACCAGCGCCTTTATACATCC</t>
+  </si>
+  <si>
+    <t>GGATGTATAAAGGCGCTGGTGACTACAAGGATCATGATGGC</t>
+  </si>
+  <si>
+    <t>GTCTCGGCCTCGCTGCTCATCTTGTCGTCATCATCCTTATAATCT</t>
+  </si>
+  <si>
+    <t>ATAAGGATGATGACGACAAGATGAGCAGCGAGGCCGAGA</t>
+  </si>
+  <si>
+    <t>AAAACGACGGCCAGTGAATTCGTGAGGGAAGGGGAAGCCG</t>
+  </si>
+  <si>
+    <t>p2a_sangerRev</t>
+  </si>
+  <si>
+    <t>tccagcctgcttcagcaggc</t>
   </si>
 </sst>
 </file>
@@ -188,9 +194,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,16 +478,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
@@ -501,254 +508,268 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
